--- a/excel/harry_potter_analysis.xlsx
+++ b/excel/harry_potter_analysis.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,6 +410,2009 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Harry Potter</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>31-07-1980</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{'wood': 'holly', 'core': 'phoenix feather', 'length': 11}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/harry.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hermione Granger</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19-09-1979</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>muggleborn</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'wood': 'vine', 'core': 'dragon heartstring', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/hermione.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ron Weasley</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01-03-1980</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'wood': 'willow', 'core': 'unicorn tail-hair', 'length': 14}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/ron.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Minerva McGonagall</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>04-10-1925</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/mcgonagall.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rubeus Hagrid</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>06-12-1928</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>half-giant</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'wood': 'oak', 'core': '', 'length': 16}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/hagrid.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Neville Longbottom</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30-07-1980</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>blonde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{'wood': 'cherry', 'core': 'unicorn tail-hair', 'length': 13}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/neville.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ginny Weasley</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11-08-1981</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{'wood': 'yew', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/ginny.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sirius Black</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03-11-1959</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/sirius.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Remus Lupin</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10-03-1960</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>werewolf</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{'wood': 'cypress', 'core': 'unicorn tail-hair', 'length': 10.25}</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/lupin.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Arthur Weasley</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>06-02-1950</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://hp-api.herokuapp.com/images/arthur.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lily Potter</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>muggleborn</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{'wood': 'willow', 'core': '', 'length': 10.25}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>James Potter</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{'wood': 'mahogany', 'core': '', 'length': 11}</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Albus Dumbledore</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Molly Weasley</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Percy Weasley</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fred Weasley</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>George Weasley</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lee Jordan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bill Weasley</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Charlie Weasley</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>pure-blood</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lavender Brown</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Seamus Finnegan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>sandy</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Parvati Patil</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nearly Headless Nick</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ghost</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Angelina Johnson</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Alicia Spinet</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Katie Bell</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Celestina Warbeck</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{'wood': 'larch', 'core': 'phoenix feather', 'length': 10.5}</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Colin Creevey</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>muggleborn</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Peter Pettigrew</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{'wood': 'chestnut', 'core': 'dragon heartstring', 'length': 9.25}</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Natalie McDonald</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Eloise Midgen</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Aberforth Dumbledore</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Euan Abercrombie</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kenneth Towler</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vicky Frobisher</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Geoffrey Hooper</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Andrew Kirke</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jack Sloper</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Romilda Vane</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Cormac McLaggen</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Demelza Robins</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jimmy Peakes</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ritchie Coote</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Lily Potter</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>James Potter</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rose Weasley</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Gryffindor</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>half-blood</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>{'wood': '', 'core': '', 'length': ''}</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
